--- a/tables/cel.xlsx
+++ b/tables/cel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>162-211-319 11</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Тарасов Андрей Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ Ц </t>
+    <t>ПИ Ц</t>
   </si>
   <si>
     <t xml:space="preserve">ПИ ОП </t>
@@ -41,6 +41,78 @@
   </si>
   <si>
     <t>Нет документа об образовании</t>
+  </si>
+  <si>
+    <t>160-129-086 30</t>
+  </si>
+  <si>
+    <t>КБ</t>
+  </si>
+  <si>
+    <t>МОАИС</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
+  </si>
+  <si>
+    <t>САУ</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>191-511-027 37</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>ИВТ Ц</t>
+  </si>
+  <si>
+    <t>ИВТ</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>176-373-045 84</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>5 - ПРИ мех</t>
   </si>
 </sst>
 </file>
@@ -372,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,6 +479,126 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/cel.xlsx
+++ b/tables/cel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
   <si>
     <t>162-211-319 11</t>
   </si>
@@ -113,6 +113,33 @@
   </si>
   <si>
     <t>5 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>162-862-436 80</t>
+  </si>
+  <si>
+    <t>Ц</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>163-220-177 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - ПРИ мех 4 - ПМИ 5 - МКН </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех </t>
+  </si>
+  <si>
+    <t>156-766-504 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - ПРИ мех 5 - ПРИ соц 6 - БИ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП </t>
   </si>
 </sst>
 </file>
@@ -444,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,6 +626,228 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/cel.xlsx
+++ b/tables/cel.xlsx
@@ -14,132 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>162-211-319 11</t>
   </si>
   <si>
-    <t>Тарасов Андрей Александрович</t>
+    <t>Ц</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Копия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП </t>
+  </si>
+  <si>
+    <t>госуслуги</t>
+  </si>
+  <si>
+    <t>Нет документа об образовании</t>
+  </si>
+  <si>
+    <t>160-129-086 30</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>191-511-027 37</t>
+  </si>
+  <si>
+    <t>ИВТ</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех </t>
+  </si>
+  <si>
+    <t>176-373-045 84</t>
   </si>
   <si>
     <t>ПИ Ц</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ ОП </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Копия</t>
-  </si>
-  <si>
-    <t>1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП</t>
-  </si>
-  <si>
-    <t>госуслуги</t>
-  </si>
-  <si>
-    <t>Нет документа об образовании</t>
-  </si>
-  <si>
-    <t>160-129-086 30</t>
-  </si>
-  <si>
     <t>КБ</t>
   </si>
   <si>
+    <t>САУ</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>5 - ПРИ мех</t>
+  </si>
+  <si>
+    <t>162-862-436 80</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>163-220-177 23</t>
+  </si>
+  <si>
     <t>МОАИС</t>
   </si>
   <si>
-    <t>ФИИТ</t>
-  </si>
-  <si>
-    <t>САУ</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>191-511-027 37</t>
-  </si>
-  <si>
-    <t>ПИ</t>
-  </si>
-  <si>
-    <t>ИВТ Ц</t>
-  </si>
-  <si>
-    <t>ИВТ</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>2 - ПРИ мех</t>
-  </si>
-  <si>
-    <t>176-373-045 84</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>5 - ПРИ мех</t>
-  </si>
-  <si>
-    <t>162-862-436 80</t>
-  </si>
-  <si>
-    <t>Ц</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>163-220-177 23</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 - ПРИ мех 4 - ПМИ 5 - МКН </t>
   </si>
   <si>
-    <t xml:space="preserve">2 - ПРИ мех </t>
-  </si>
-  <si>
     <t>156-766-504 04</t>
   </si>
   <si>
     <t xml:space="preserve">4 - ПРИ мех 5 - ПРИ соц 6 - БИ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП </t>
   </si>
 </sst>
 </file>
@@ -471,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,371 +466,263 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
       <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
+      <c r="N2" t="s">
+        <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
         <v>7</v>
-      </c>
-      <c r="T2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
       <c r="S3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" t="s">
         <v>7</v>
-      </c>
-      <c r="T3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
       <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
         <v>7</v>
-      </c>
-      <c r="T4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" t="s">
         <v>7</v>
-      </c>
-      <c r="S5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
         <v>7</v>
-      </c>
-      <c r="S6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
         <v>4</v>
       </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
       <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
         <v>7</v>
-      </c>
-      <c r="S7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>41</v>
-      </c>
-      <c r="R10" t="s">
-        <v>7</v>
-      </c>
-      <c r="S10" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
